--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H2">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I2">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J2">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>23.117390362805</v>
+        <v>82.55584520019174</v>
       </c>
       <c r="R2">
-        <v>92.46956145122002</v>
+        <v>330.223380800767</v>
       </c>
       <c r="S2">
-        <v>0.004023279065819442</v>
+        <v>0.01433775207417985</v>
       </c>
       <c r="T2">
-        <v>0.002310006809279264</v>
+        <v>0.009317937290729184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H3">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I3">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J3">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>302.9801028762417</v>
+        <v>377.3132867073358</v>
       </c>
       <c r="R3">
-        <v>1817.88061725745</v>
+        <v>2263.879720244015</v>
       </c>
       <c r="S3">
-        <v>0.05272971932087481</v>
+        <v>0.06552927107687286</v>
       </c>
       <c r="T3">
-        <v>0.04541296117789793</v>
+        <v>0.06388005966093079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H4">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I4">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J4">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>790.1558580864782</v>
+        <v>1364.371671351783</v>
       </c>
       <c r="R4">
-        <v>4740.93514851887</v>
+        <v>8186.2300281107</v>
       </c>
       <c r="S4">
-        <v>0.1375162798517623</v>
+        <v>0.2369550298157546</v>
       </c>
       <c r="T4">
-        <v>0.1184345670462298</v>
+        <v>0.2309914514970121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H5">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I5">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J5">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>539.9363357493951</v>
+        <v>391.097294919518</v>
       </c>
       <c r="R5">
-        <v>2159.74534299758</v>
+        <v>1564.389179678072</v>
       </c>
       <c r="S5">
-        <v>0.09396884866342742</v>
+        <v>0.06792318627276826</v>
       </c>
       <c r="T5">
-        <v>0.05395317518906397</v>
+        <v>0.04414248391251915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H6">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I6">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J6">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>31.06254307974834</v>
+        <v>1759.293888703125</v>
       </c>
       <c r="R6">
-        <v>186.37525847849</v>
+        <v>10555.76333221875</v>
       </c>
       <c r="S6">
-        <v>0.00540602885284765</v>
+        <v>0.3055425032676737</v>
       </c>
       <c r="T6">
-        <v>0.004655890104914243</v>
+        <v>0.2978527460620207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.301715</v>
+        <v>22.7918605</v>
       </c>
       <c r="H7">
-        <v>36.60343</v>
+        <v>45.583721</v>
       </c>
       <c r="I7">
-        <v>0.4544165459658234</v>
+        <v>0.80961886404554</v>
       </c>
       <c r="J7">
-        <v>0.3632302676703624</v>
+        <v>0.7625125276118493</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>923.7833228240235</v>
+        <v>687.1008472117088</v>
       </c>
       <c r="R7">
-        <v>5542.699936944141</v>
+        <v>4122.605083270252</v>
       </c>
       <c r="S7">
-        <v>0.1607723902110917</v>
+        <v>0.1193311215382909</v>
       </c>
       <c r="T7">
-        <v>0.1384636673429772</v>
+        <v>0.1163278491886373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J8">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>0.3065036611426667</v>
+        <v>0.8789348767046666</v>
       </c>
       <c r="R8">
-        <v>1.839021966856</v>
+        <v>5.273609260228</v>
       </c>
       <c r="S8">
-        <v>5.334294849544945E-05</v>
+        <v>0.0001526475844439913</v>
       </c>
       <c r="T8">
-        <v>4.594109887816989E-05</v>
+        <v>0.0001488058182417442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J9">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>4.017084512028888</v>
@@ -1013,10 +1013,10 @@
         <v>36.15376060825999</v>
       </c>
       <c r="S9">
-        <v>0.0006991209547976114</v>
+        <v>0.0006976606157302616</v>
       </c>
       <c r="T9">
-        <v>0.000903166748878651</v>
+        <v>0.001020153307603164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J10">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>10.47634095267511</v>
+        <v>14.52585027542222</v>
       </c>
       <c r="R10">
-        <v>94.28706857407597</v>
+        <v>130.7326524788</v>
       </c>
       <c r="S10">
-        <v>0.001823269953043714</v>
+        <v>0.002522753409048462</v>
       </c>
       <c r="T10">
-        <v>0.002355410440093774</v>
+        <v>0.003688892817626075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J11">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>7.158786571230666</v>
+        <v>4.163836635141333</v>
       </c>
       <c r="R11">
-        <v>42.952719427384</v>
+        <v>24.983019810848</v>
       </c>
       <c r="S11">
-        <v>0.00124589305698807</v>
+        <v>0.0007231475519059313</v>
       </c>
       <c r="T11">
-        <v>0.0010730133548504</v>
+        <v>0.000704947697422356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J12">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>0.4118450668057778</v>
+        <v>18.73040913583867</v>
       </c>
       <c r="R12">
-        <v>3.706605601252</v>
+        <v>168.573682222548</v>
       </c>
       <c r="S12">
-        <v>7.167624068444562E-05</v>
+        <v>0.003252973327162839</v>
       </c>
       <c r="T12">
-        <v>9.259570440075675E-05</v>
+        <v>0.004756655921843082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.006024915997716873</v>
+        <v>0.008619647157897261</v>
       </c>
       <c r="J13">
-        <v>0.007223873789270231</v>
+        <v>0.01217719083640478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>12.24805075765244</v>
+        <v>7.315253050383555</v>
       </c>
       <c r="R13">
-        <v>110.232456818872</v>
+        <v>65.83727745345199</v>
       </c>
       <c r="S13">
-        <v>0.002131612843707583</v>
+        <v>0.001270464669605777</v>
       </c>
       <c r="T13">
-        <v>0.00275374644216848</v>
+        <v>0.001857735273668361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H14">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I14">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J14">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>2.30206158877</v>
+        <v>5.953628198778834</v>
       </c>
       <c r="R14">
-        <v>13.81236953262</v>
+        <v>35.721769192673</v>
       </c>
       <c r="S14">
-        <v>0.0004006436735708425</v>
+        <v>0.001033986689239765</v>
       </c>
       <c r="T14">
-        <v>0.000345050491987736</v>
+        <v>0.001007963774230899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H15">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I15">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J15">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>30.17117615988333</v>
+        <v>27.21046605564278</v>
       </c>
       <c r="R15">
-        <v>271.54058543895</v>
+        <v>244.894194500785</v>
       </c>
       <c r="S15">
-        <v>0.00525089811307233</v>
+        <v>0.004725733413335417</v>
       </c>
       <c r="T15">
-        <v>0.006783427881731091</v>
+        <v>0.006910197399374001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H16">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I16">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J16">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>78.68480920619666</v>
+        <v>98.39353756814444</v>
       </c>
       <c r="R16">
-        <v>708.1632828557699</v>
+        <v>885.5418381133001</v>
       </c>
       <c r="S16">
-        <v>0.01369406064910504</v>
+        <v>0.01708833752392228</v>
       </c>
       <c r="T16">
-        <v>0.01769081608915539</v>
+        <v>0.02498739882030067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H17">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I17">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J17">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>53.76760436203</v>
+        <v>28.20451874549466</v>
       </c>
       <c r="R17">
-        <v>322.60562617218</v>
+        <v>169.227112472968</v>
       </c>
       <c r="S17">
-        <v>0.009357547441733362</v>
+        <v>0.004898373896649552</v>
       </c>
       <c r="T17">
-        <v>0.008059097301577009</v>
+        <v>0.004775093811015297</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H18">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I18">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J18">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>3.093250844976667</v>
+        <v>126.8738958498103</v>
       </c>
       <c r="R18">
-        <v>27.83925760479</v>
+        <v>1141.865062648293</v>
       </c>
       <c r="S18">
-        <v>0.0005383398028328695</v>
+        <v>0.02203461740314992</v>
       </c>
       <c r="T18">
-        <v>0.0006954599289007007</v>
+        <v>0.0322200899961431</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.82251</v>
+        <v>1.643666333333333</v>
       </c>
       <c r="H19">
-        <v>5.46753</v>
+        <v>4.930999</v>
       </c>
       <c r="I19">
-        <v>0.0452514258466036</v>
+        <v>0.05838677670316696</v>
       </c>
       <c r="J19">
-        <v>0.05425645589486386</v>
+        <v>0.08248445779890372</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>91.99161628732668</v>
+        <v>49.55122159363411</v>
       </c>
       <c r="R19">
-        <v>827.9245465859401</v>
+        <v>445.960994342707</v>
       </c>
       <c r="S19">
-        <v>0.01600993616628916</v>
+        <v>0.008605727776870032</v>
       </c>
       <c r="T19">
-        <v>0.02068260420151193</v>
+        <v>0.01258371399783974</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H20">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I20">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J20">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>2.212870928173</v>
+        <v>6.81412083002325</v>
       </c>
       <c r="R20">
-        <v>8.851483712692</v>
+        <v>27.256483320093</v>
       </c>
       <c r="S20">
-        <v>0.0003851212070633825</v>
+        <v>0.001183431346714031</v>
       </c>
       <c r="T20">
-        <v>0.0002211212784796142</v>
+        <v>0.0007690981835585478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H21">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I21">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J21">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>29.00222953142833</v>
+        <v>31.1432621174475</v>
       </c>
       <c r="R21">
-        <v>174.01337718857</v>
+        <v>186.859572704685</v>
       </c>
       <c r="S21">
-        <v>0.005047458259978436</v>
+        <v>0.005408755369633383</v>
       </c>
       <c r="T21">
-        <v>0.004347074647080789</v>
+        <v>0.005272630231125844</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H22">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I22">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J22">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>75.63625909516365</v>
+        <v>112.61459928255</v>
       </c>
       <c r="R22">
-        <v>453.8175545709819</v>
+        <v>675.6875956952999</v>
       </c>
       <c r="S22">
-        <v>0.01316350042365005</v>
+        <v>0.01955815727561061</v>
       </c>
       <c r="T22">
-        <v>0.0113369375260036</v>
+        <v>0.01906592631189535</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H23">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I23">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J23">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>51.68444195874699</v>
+        <v>32.280987704922</v>
       </c>
       <c r="R23">
-        <v>206.737767834988</v>
+        <v>129.123950819688</v>
       </c>
       <c r="S23">
-        <v>0.008995000304868139</v>
+        <v>0.005606348009646984</v>
       </c>
       <c r="T23">
-        <v>0.005164571389104571</v>
+        <v>0.003643499965240066</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H24">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I24">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J24">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>2.973406489985666</v>
+        <v>145.2112942950855</v>
       </c>
       <c r="R24">
-        <v>17.840438939914</v>
+        <v>871.2677657705131</v>
       </c>
       <c r="S24">
-        <v>0.0005174824622323615</v>
+        <v>0.02521933523816514</v>
       </c>
       <c r="T24">
-        <v>0.0004456767695764663</v>
+        <v>0.02458462627690627</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.751899</v>
+        <v>1.8812295</v>
       </c>
       <c r="H25">
-        <v>3.503798</v>
+        <v>3.762459</v>
       </c>
       <c r="I25">
-        <v>0.04349821273366894</v>
+        <v>0.06682556216939636</v>
       </c>
       <c r="J25">
-        <v>0.03476956901041461</v>
+        <v>0.06293742720402204</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>88.42750963350066</v>
+        <v>56.7129823934145</v>
       </c>
       <c r="R25">
-        <v>530.5650578010039</v>
+        <v>340.277894360487</v>
       </c>
       <c r="S25">
-        <v>0.01538965007587657</v>
+        <v>0.009849534929626222</v>
       </c>
       <c r="T25">
-        <v>0.01325418740016956</v>
+        <v>0.009601646235295956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H26">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I26">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J26">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>17.50679832873367</v>
+        <v>2.425993507026167</v>
       </c>
       <c r="R26">
-        <v>105.040789972402</v>
+        <v>14.555961042157</v>
       </c>
       <c r="S26">
-        <v>0.003046828994108425</v>
+        <v>0.0004213304745771106</v>
       </c>
       <c r="T26">
-        <v>0.002624052026204568</v>
+        <v>0.000410726617443682</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H27">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I27">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J27">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>229.4468136510605</v>
+        <v>11.08776224684056</v>
       </c>
       <c r="R27">
-        <v>2065.021322859545</v>
+        <v>99.78986022156501</v>
       </c>
       <c r="S27">
-        <v>0.03993221326428631</v>
+        <v>0.001925649065395092</v>
       </c>
       <c r="T27">
-        <v>0.05158684914525985</v>
+        <v>0.002815777785147713</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H28">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I28">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J28">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>598.3849837153073</v>
+        <v>40.0935488921889</v>
       </c>
       <c r="R28">
-        <v>5385.464853437766</v>
+        <v>360.8419400297</v>
       </c>
       <c r="S28">
-        <v>0.1041410704452191</v>
+        <v>0.006963181860669476</v>
       </c>
       <c r="T28">
-        <v>0.1345357357311362</v>
+        <v>0.01018190341613145</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H29">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I29">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J29">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>408.8937545272796</v>
+        <v>11.49282035438534</v>
       </c>
       <c r="R29">
-        <v>2453.362527163678</v>
+        <v>68.95692212631201</v>
       </c>
       <c r="S29">
-        <v>0.07116260343039457</v>
+        <v>0.001995996873082488</v>
       </c>
       <c r="T29">
-        <v>0.06128810447931358</v>
+        <v>0.00194576251559344</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H30">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I30">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J30">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>23.52366200251211</v>
+        <v>51.69876876185968</v>
       </c>
       <c r="R30">
-        <v>211.712958022609</v>
+        <v>465.2889188567371</v>
       </c>
       <c r="S30">
-        <v>0.004093985324502501</v>
+        <v>0.008978699536664379</v>
       </c>
       <c r="T30">
-        <v>0.005288857943842117</v>
+        <v>0.01312909145762154</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.85988766666667</v>
+        <v>0.6697636666666668</v>
       </c>
       <c r="H31">
-        <v>41.579663</v>
+        <v>2.009291</v>
       </c>
       <c r="I31">
-        <v>0.3441296228774725</v>
+        <v>0.02379153290209206</v>
       </c>
       <c r="J31">
-        <v>0.4126113897285982</v>
+        <v>0.03361089278160816</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>699.5810547088638</v>
+        <v>20.19120741802923</v>
       </c>
       <c r="R31">
-        <v>6296.229492379774</v>
+        <v>181.720866762263</v>
       </c>
       <c r="S31">
-        <v>0.1217529214189616</v>
+        <v>0.00350667509170352</v>
       </c>
       <c r="T31">
-        <v>0.1572877904028419</v>
+        <v>0.005127630989670333</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H32">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I32">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J32">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N32">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O32">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P32">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q32">
-        <v>5.427061365140668</v>
+        <v>3.3402541369585</v>
       </c>
       <c r="R32">
-        <v>32.562368190844</v>
+        <v>20.041524821751</v>
       </c>
       <c r="S32">
-        <v>0.0009445089621542637</v>
+        <v>0.0005801132017282443</v>
       </c>
       <c r="T32">
-        <v>0.0008134492157918171</v>
+        <v>0.0005655131718621011</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H33">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I33">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J33">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P33">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q33">
-        <v>71.12790781833223</v>
+        <v>15.26629960358833</v>
       </c>
       <c r="R33">
-        <v>640.1511703649901</v>
+        <v>137.396696432295</v>
       </c>
       <c r="S33">
-        <v>0.0123788809216746</v>
+        <v>0.002651349741203923</v>
       </c>
       <c r="T33">
-        <v>0.01599178734389582</v>
+        <v>0.003876932633313121</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H34">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I34">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J34">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N34">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O34">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P34">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q34">
-        <v>185.4977686737638</v>
+        <v>55.20321557523334</v>
       </c>
       <c r="R34">
-        <v>1669.479918063874</v>
+        <v>496.8289401771</v>
       </c>
       <c r="S34">
-        <v>0.0322834575074769</v>
+        <v>0.009587328634282584</v>
       </c>
       <c r="T34">
-        <v>0.0417057236798613</v>
+        <v>0.01401905854625938</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H35">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I35">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J35">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N35">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O35">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P35">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q35">
-        <v>126.7559867871527</v>
+        <v>15.824008029236</v>
       </c>
       <c r="R35">
-        <v>760.5359207229161</v>
+        <v>94.94404817541599</v>
       </c>
       <c r="S35">
-        <v>0.02206021960543466</v>
+        <v>0.002748208844483976</v>
       </c>
       <c r="T35">
-        <v>0.01899915094220695</v>
+        <v>0.00267904315218749</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H36">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I36">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J36">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N36">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O36">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P36">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q36">
-        <v>7.292273254266445</v>
+        <v>71.181982034299</v>
       </c>
       <c r="R36">
-        <v>65.63045928839801</v>
+        <v>640.637838308691</v>
       </c>
       <c r="S36">
-        <v>0.001269124666135772</v>
+        <v>0.01236241489723289</v>
       </c>
       <c r="T36">
-        <v>0.001639532030573123</v>
+        <v>0.01807692474395145</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.296528666666667</v>
+        <v>0.922171</v>
       </c>
       <c r="H37">
-        <v>12.889586</v>
+        <v>2.766513</v>
       </c>
       <c r="I37">
-        <v>0.1066792765787147</v>
+        <v>0.03275761702190743</v>
       </c>
       <c r="J37">
-        <v>0.1279084439064906</v>
+        <v>0.04627750376721199</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N37">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O37">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P37">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q37">
-        <v>216.8682841090032</v>
+        <v>27.80047181203433</v>
       </c>
       <c r="R37">
-        <v>1951.814556981028</v>
+        <v>250.204246308309</v>
       </c>
       <c r="S37">
-        <v>0.03774308491583849</v>
+        <v>0.004828201702975815</v>
       </c>
       <c r="T37">
-        <v>0.0487588006941616</v>
+        <v>0.00706003151963844</v>
       </c>
     </row>
   </sheetData>
